--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H2">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I2">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J2">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N2">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O2">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P2">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q2">
-        <v>15.48463973955066</v>
+        <v>17.1654137315235</v>
       </c>
       <c r="R2">
-        <v>15.48463973955066</v>
+        <v>68.661654926094</v>
       </c>
       <c r="S2">
-        <v>0.002912551700788491</v>
+        <v>0.002903474456394215</v>
       </c>
       <c r="T2">
-        <v>0.002912551700788491</v>
+        <v>0.001616100151194118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H3">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I3">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J3">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N3">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P3">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q3">
-        <v>86.58382965369962</v>
+        <v>92.380244142902</v>
       </c>
       <c r="R3">
-        <v>86.58382965369962</v>
+        <v>554.2814648574119</v>
       </c>
       <c r="S3">
-        <v>0.01628580868268762</v>
+        <v>0.01562582081268433</v>
       </c>
       <c r="T3">
-        <v>0.01628580868268762</v>
+        <v>0.01304620985503996</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H4">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I4">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J4">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N4">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O4">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P4">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q4">
-        <v>251.6040509586394</v>
+        <v>255.5526164522223</v>
       </c>
       <c r="R4">
-        <v>251.6040509586394</v>
+        <v>1533.315698713334</v>
       </c>
       <c r="S4">
-        <v>0.0473249503295273</v>
+        <v>0.04322590213896819</v>
       </c>
       <c r="T4">
-        <v>0.0473249503295273</v>
+        <v>0.03608989231596868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H5">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I5">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J5">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N5">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O5">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P5">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q5">
-        <v>243.4393470996851</v>
+        <v>248.3636774540481</v>
       </c>
       <c r="R5">
-        <v>243.4393470996851</v>
+        <v>1490.182064724289</v>
       </c>
       <c r="S5">
-        <v>0.04578922702496162</v>
+        <v>0.04200991625734374</v>
       </c>
       <c r="T5">
-        <v>0.04578922702496162</v>
+        <v>0.03507464920121591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H6">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I6">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J6">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N6">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O6">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P6">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q6">
-        <v>22.42419039670324</v>
+        <v>24.47827922570533</v>
       </c>
       <c r="R6">
-        <v>22.42419039670324</v>
+        <v>146.869675354232</v>
       </c>
       <c r="S6">
-        <v>0.004217832314942719</v>
+        <v>0.004140422105748608</v>
       </c>
       <c r="T6">
-        <v>0.004217832314942719</v>
+        <v>0.003456894605894521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.4674967501667</v>
+        <v>4.4692555</v>
       </c>
       <c r="H7">
-        <v>4.4674967501667</v>
+        <v>8.938511</v>
       </c>
       <c r="I7">
-        <v>0.1238258816704024</v>
+        <v>0.1144736349043841</v>
       </c>
       <c r="J7">
-        <v>0.1238258816704024</v>
+        <v>0.09293960953080407</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N7">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O7">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P7">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q7">
-        <v>38.78673435463099</v>
+        <v>38.83076663668225</v>
       </c>
       <c r="R7">
-        <v>38.78673435463099</v>
+        <v>155.323066546729</v>
       </c>
       <c r="S7">
-        <v>0.007295511617494696</v>
+        <v>0.006568099133245018</v>
       </c>
       <c r="T7">
-        <v>0.007295511617494696</v>
+        <v>0.003655863401490876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H8">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I8">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J8">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N8">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O8">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P8">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q8">
-        <v>41.97871712948561</v>
+        <v>49.638241636029</v>
       </c>
       <c r="R8">
-        <v>41.97871712948561</v>
+        <v>297.829449816174</v>
       </c>
       <c r="S8">
-        <v>0.007895901101277428</v>
+        <v>0.008396148727010173</v>
       </c>
       <c r="T8">
-        <v>0.007895901101277428</v>
+        <v>0.007010058516592195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H9">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I9">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J9">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N9">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P9">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q9">
-        <v>234.727972633201</v>
+        <v>267.1414131276946</v>
       </c>
       <c r="R9">
-        <v>234.727972633201</v>
+        <v>2404.272718149252</v>
       </c>
       <c r="S9">
-        <v>0.04415067882846997</v>
+        <v>0.04518610977822757</v>
       </c>
       <c r="T9">
-        <v>0.04415067882846997</v>
+        <v>0.05658974441404332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H10">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I10">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J10">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N10">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O10">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P10">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q10">
-        <v>682.096287771426</v>
+        <v>738.996608213357</v>
       </c>
       <c r="R10">
-        <v>682.096287771426</v>
+        <v>6650.969473920213</v>
       </c>
       <c r="S10">
-        <v>0.1282975087871067</v>
+        <v>0.1249988965526093</v>
       </c>
       <c r="T10">
-        <v>0.1282975087871067</v>
+        <v>0.1565449126438843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H11">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I11">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J11">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N11">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O11">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P11">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q11">
-        <v>659.9618500637387</v>
+        <v>718.2079283318631</v>
       </c>
       <c r="R11">
-        <v>659.9618500637387</v>
+        <v>6463.871354986768</v>
       </c>
       <c r="S11">
-        <v>0.1241341769126907</v>
+        <v>0.1214825582946373</v>
       </c>
       <c r="T11">
-        <v>0.1241341769126907</v>
+        <v>0.1521411548459994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H12">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I12">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J12">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N12">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O12">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P12">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q12">
-        <v>60.79177567926092</v>
+        <v>70.78528709205244</v>
       </c>
       <c r="R12">
-        <v>60.79177567926092</v>
+        <v>637.0675838284719</v>
       </c>
       <c r="S12">
-        <v>0.01143450494339508</v>
+        <v>0.01197310336790026</v>
       </c>
       <c r="T12">
-        <v>0.01143450494339508</v>
+        <v>0.01499475973386117</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.1113429505972</v>
+        <v>12.92401033333333</v>
       </c>
       <c r="H13">
-        <v>12.1113429505972</v>
+        <v>38.772031</v>
       </c>
       <c r="I13">
-        <v>0.3356908360401945</v>
+        <v>0.3310301772629664</v>
       </c>
       <c r="J13">
-        <v>0.3356908360401945</v>
+        <v>0.4031384446309045</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N13">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O13">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P13">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q13">
-        <v>105.1504831391579</v>
+        <v>112.2892233983348</v>
       </c>
       <c r="R13">
-        <v>105.1504831391579</v>
+        <v>673.735340390009</v>
       </c>
       <c r="S13">
-        <v>0.01977806546725465</v>
+        <v>0.01899336054258172</v>
       </c>
       <c r="T13">
-        <v>0.01977806546725465</v>
+        <v>0.01585781447652407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H14">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I14">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J14">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N14">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O14">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P14">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q14">
-        <v>2.917080709367585</v>
+        <v>4.386906043443001</v>
       </c>
       <c r="R14">
-        <v>2.917080709367585</v>
+        <v>26.321436260658</v>
       </c>
       <c r="S14">
-        <v>0.0005486823409720737</v>
+        <v>0.0007420310304753535</v>
       </c>
       <c r="T14">
-        <v>0.0005486823409720737</v>
+        <v>0.0006195317774714701</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H15">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I15">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J15">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N15">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P15">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q15">
-        <v>16.31113306309995</v>
+        <v>23.60930284954267</v>
       </c>
       <c r="R15">
-        <v>16.31113306309995</v>
+        <v>212.483725645884</v>
       </c>
       <c r="S15">
-        <v>0.003068009275241798</v>
+        <v>0.003993437550009947</v>
       </c>
       <c r="T15">
-        <v>0.003068009275241798</v>
+        <v>0.005001262808364085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H16">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I16">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J16">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N16">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O16">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P16">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q16">
-        <v>47.39854047592352</v>
+        <v>65.31070762792645</v>
       </c>
       <c r="R16">
-        <v>47.39854047592352</v>
+        <v>587.7963686513381</v>
       </c>
       <c r="S16">
-        <v>0.008915331709360725</v>
+        <v>0.01104709588085676</v>
       </c>
       <c r="T16">
-        <v>0.008915331709360725</v>
+        <v>0.013835055407145</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H17">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I17">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J17">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N17">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O17">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P17">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q17">
-        <v>45.86042912653117</v>
+        <v>63.47345509033588</v>
       </c>
       <c r="R17">
-        <v>45.86042912653117</v>
+        <v>571.261095813023</v>
       </c>
       <c r="S17">
-        <v>0.008626023795064698</v>
+        <v>0.01073633053046831</v>
       </c>
       <c r="T17">
-        <v>0.008626023795064698</v>
+        <v>0.01344586209447578</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H18">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I18">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J18">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N18">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O18">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P18">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q18">
-        <v>4.224391030701955</v>
+        <v>6.255830051513778</v>
       </c>
       <c r="R18">
-        <v>4.224391030701955</v>
+        <v>56.302470463624</v>
       </c>
       <c r="S18">
-        <v>0.0007945782070628699</v>
+        <v>0.001058153508106645</v>
       </c>
       <c r="T18">
-        <v>0.0007945782070628699</v>
+        <v>0.001325200086231614</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.84161135217033</v>
+        <v>1.142192333333333</v>
       </c>
       <c r="H19">
-        <v>0.84161135217033</v>
+        <v>3.426577</v>
       </c>
       <c r="I19">
-        <v>0.02332699351206513</v>
+        <v>0.02925563511788185</v>
       </c>
       <c r="J19">
-        <v>0.02332699351206513</v>
+        <v>0.03562838692118118</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N19">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O19">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P19">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q19">
-        <v>7.306856114725617</v>
+        <v>9.923846141683835</v>
       </c>
       <c r="R19">
-        <v>7.306856114725617</v>
+        <v>59.54307685010301</v>
       </c>
       <c r="S19">
-        <v>0.001374368184362967</v>
+        <v>0.001678586617964843</v>
       </c>
       <c r="T19">
-        <v>0.001374368184362967</v>
+        <v>0.001401474747493224</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H20">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I20">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J20">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N20">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O20">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P20">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q20">
-        <v>5.674720357285561</v>
+        <v>6.758113425372001</v>
       </c>
       <c r="R20">
-        <v>5.674720357285561</v>
+        <v>40.548680552232</v>
       </c>
       <c r="S20">
-        <v>0.001067374940980755</v>
+        <v>0.00114311312333518</v>
       </c>
       <c r="T20">
-        <v>0.001067374940980755</v>
+        <v>0.000954400659898455</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H21">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I21">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J21">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N21">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P21">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q21">
-        <v>31.73073633044384</v>
+        <v>36.37058668937067</v>
       </c>
       <c r="R21">
-        <v>31.73073633044384</v>
+        <v>327.335280204336</v>
       </c>
       <c r="S21">
-        <v>0.005968328073558861</v>
+        <v>0.006151967617461363</v>
       </c>
       <c r="T21">
-        <v>0.005968328073558861</v>
+        <v>0.007704541878561013</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H22">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I22">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J22">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N22">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O22">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P22">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q22">
-        <v>92.20638348489835</v>
+        <v>100.6124055701058</v>
       </c>
       <c r="R22">
-        <v>92.20638348489835</v>
+        <v>905.5116501309519</v>
       </c>
       <c r="S22">
-        <v>0.0173433714674391</v>
+        <v>0.01701826440878042</v>
       </c>
       <c r="T22">
-        <v>0.0173433714674391</v>
+        <v>0.02131316986547787</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H23">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I23">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J23">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N23">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O23">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P23">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q23">
-        <v>89.21423048819192</v>
+        <v>97.78208257774354</v>
       </c>
       <c r="R23">
-        <v>89.21423048819192</v>
+        <v>880.0387431996918</v>
       </c>
       <c r="S23">
-        <v>0.01678056855783589</v>
+        <v>0.01653952438886599</v>
       </c>
       <c r="T23">
-        <v>0.01678056855783589</v>
+        <v>0.02071361005604312</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H24">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I24">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J24">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N24">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O24">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P24">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q24">
-        <v>8.217886362237827</v>
+        <v>9.63722692925511</v>
       </c>
       <c r="R24">
-        <v>8.217886362237827</v>
+        <v>86.73504236329599</v>
       </c>
       <c r="S24">
-        <v>0.001545726558951696</v>
+        <v>0.001630105901157514</v>
       </c>
       <c r="T24">
-        <v>0.001545726558951696</v>
+        <v>0.002041496308646066</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.63722212338753</v>
+        <v>1.759569333333333</v>
       </c>
       <c r="H25">
-        <v>1.63722212338753</v>
+        <v>5.278708</v>
       </c>
       <c r="I25">
-        <v>0.04537898609801666</v>
+        <v>0.04506887052059354</v>
       </c>
       <c r="J25">
-        <v>0.04537898609801666</v>
+        <v>0.05488621766501509</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N25">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O25">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P25">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q25">
-        <v>14.21433593141114</v>
+        <v>15.28787650733533</v>
       </c>
       <c r="R25">
-        <v>14.21433593141114</v>
+        <v>91.727259044012</v>
       </c>
       <c r="S25">
-        <v>0.002673616499250362</v>
+        <v>0.002585895080993061</v>
       </c>
       <c r="T25">
-        <v>0.002673616499250362</v>
+        <v>0.002158998896388571</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H26">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I26">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J26">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N26">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O26">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P26">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q26">
-        <v>7.216695610909103</v>
+        <v>8.703676938348</v>
       </c>
       <c r="R26">
-        <v>7.216695610909103</v>
+        <v>52.22206163008801</v>
       </c>
       <c r="S26">
-        <v>0.001357409628455204</v>
+        <v>0.00147219892642564</v>
       </c>
       <c r="T26">
-        <v>0.001357409628455204</v>
+        <v>0.001229158862932972</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H27">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I27">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J27">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N27">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P27">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q27">
-        <v>40.35283700153347</v>
+        <v>46.841154724336</v>
       </c>
       <c r="R27">
-        <v>40.35283700153347</v>
+        <v>421.570392519024</v>
       </c>
       <c r="S27">
-        <v>0.007590084497753231</v>
+        <v>0.007923030483113679</v>
       </c>
       <c r="T27">
-        <v>0.007590084497753231</v>
+        <v>0.009922568511089568</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H28">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I28">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J28">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N28">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O28">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P28">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q28">
-        <v>117.2613558197547</v>
+        <v>129.5772679376186</v>
       </c>
       <c r="R28">
-        <v>117.2613558197547</v>
+        <v>1166.195411438568</v>
       </c>
       <c r="S28">
-        <v>0.02205603534044517</v>
+        <v>0.02191757760521124</v>
       </c>
       <c r="T28">
-        <v>0.02205603534044517</v>
+        <v>0.02744892448013955</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H29">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I29">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J29">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N29">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O29">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P29">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q29">
-        <v>113.4561537941118</v>
+        <v>125.9321357230253</v>
       </c>
       <c r="R29">
-        <v>113.4561537941118</v>
+        <v>1133.389221507228</v>
       </c>
       <c r="S29">
-        <v>0.02134030363353807</v>
+        <v>0.02130101522921588</v>
       </c>
       <c r="T29">
-        <v>0.02134030363353807</v>
+        <v>0.02667676003747925</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H30">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I30">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J30">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N30">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O30">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P30">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q30">
-        <v>10.45090871573447</v>
+        <v>12.41164574996266</v>
       </c>
       <c r="R30">
-        <v>10.45090871573447</v>
+        <v>111.704811749664</v>
       </c>
       <c r="S30">
-        <v>0.001965742339942937</v>
+        <v>0.002099389910459909</v>
       </c>
       <c r="T30">
-        <v>0.001965742339942937</v>
+        <v>0.002629213690699083</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.08209972792136</v>
+        <v>2.266124</v>
       </c>
       <c r="H31">
-        <v>2.08209972792136</v>
+        <v>6.798372000000001</v>
       </c>
       <c r="I31">
-        <v>0.05770968597256332</v>
+        <v>0.05804354918264631</v>
       </c>
       <c r="J31">
-        <v>0.05770968597256332</v>
+        <v>0.07068716916331497</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N31">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O31">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P31">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q31">
-        <v>18.07675608129359</v>
+        <v>19.689035951018</v>
       </c>
       <c r="R31">
-        <v>18.07675608129359</v>
+        <v>118.134215706108</v>
       </c>
       <c r="S31">
-        <v>0.00340011053242871</v>
+        <v>0.003330337028219965</v>
       </c>
       <c r="T31">
-        <v>0.00340011053242871</v>
+        <v>0.002780543580974541</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H32">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I32">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J32">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.46606625712103</v>
+        <v>3.840777</v>
       </c>
       <c r="N32">
-        <v>3.46606625712103</v>
+        <v>7.681554</v>
       </c>
       <c r="O32">
-        <v>0.02352134837643289</v>
+        <v>0.02536369583109148</v>
       </c>
       <c r="P32">
-        <v>0.02352134837643289</v>
+        <v>0.0173887125129192</v>
       </c>
       <c r="Q32">
-        <v>51.77986852203494</v>
+        <v>63.2984534553375</v>
       </c>
       <c r="R32">
-        <v>51.77986852203494</v>
+        <v>253.19381382135</v>
       </c>
       <c r="S32">
-        <v>0.009739428663958936</v>
+        <v>0.01070672956745091</v>
       </c>
       <c r="T32">
-        <v>0.009739428663958936</v>
+        <v>0.005959462544829994</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H33">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I33">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J33">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.3808377477765</v>
+        <v>20.670164</v>
       </c>
       <c r="N33">
-        <v>19.3808377477765</v>
+        <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1315218471533835</v>
+        <v>0.1365014819852278</v>
       </c>
       <c r="P33">
-        <v>0.1315218471533835</v>
+        <v>0.1403729789796018</v>
       </c>
       <c r="Q33">
-        <v>289.5320389115449</v>
+        <v>340.65747994955</v>
       </c>
       <c r="R33">
-        <v>289.5320389115449</v>
+        <v>2043.9448796973</v>
       </c>
       <c r="S33">
-        <v>0.05445893779567199</v>
+        <v>0.05762111574373088</v>
       </c>
       <c r="T33">
-        <v>0.05445893779567199</v>
+        <v>0.04810865151250385</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H34">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I34">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J34">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>56.318798877526</v>
+        <v>57.18013133333333</v>
       </c>
       <c r="N34">
-        <v>56.318798877526</v>
+        <v>171.540394</v>
       </c>
       <c r="O34">
-        <v>0.3821894881031094</v>
+        <v>0.3776057445460984</v>
       </c>
       <c r="P34">
-        <v>0.3821894881031094</v>
+        <v>0.3883155147537712</v>
       </c>
       <c r="Q34">
-        <v>841.3514874985254</v>
+        <v>942.3650167070583</v>
       </c>
       <c r="R34">
-        <v>841.3514874985254</v>
+        <v>5654.19010024235</v>
       </c>
       <c r="S34">
-        <v>0.1582522904692303</v>
+        <v>0.1593980079596723</v>
       </c>
       <c r="T34">
-        <v>0.1582522904692303</v>
+        <v>0.1330835600411557</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H35">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I35">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J35">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>54.4912197396901</v>
+        <v>55.57159966666666</v>
       </c>
       <c r="N35">
-        <v>54.4912197396901</v>
+        <v>166.714799</v>
       </c>
       <c r="O35">
-        <v>0.3697872077086645</v>
+        <v>0.3669833345681142</v>
       </c>
       <c r="P35">
-        <v>0.3697872077086645</v>
+        <v>0.3773918287185262</v>
       </c>
       <c r="Q35">
-        <v>814.0491220932665</v>
+        <v>915.855389401454</v>
       </c>
       <c r="R35">
-        <v>814.0491220932665</v>
+        <v>5495.132336408724</v>
       </c>
       <c r="S35">
-        <v>0.1531169077845736</v>
+        <v>0.1549139898675828</v>
       </c>
       <c r="T35">
-        <v>0.1531169077845736</v>
+        <v>0.1293397924833127</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H36">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I36">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J36">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.01940832880662</v>
+        <v>5.477037333333333</v>
       </c>
       <c r="N36">
-        <v>5.01940832880662</v>
+        <v>16.431112</v>
       </c>
       <c r="O36">
-        <v>0.03406260676721585</v>
+        <v>0.03616922018076005</v>
       </c>
       <c r="P36">
-        <v>0.03406260676721585</v>
+        <v>0.03719506272240967</v>
       </c>
       <c r="Q36">
-        <v>74.98538228749688</v>
+        <v>90.26506686463333</v>
       </c>
       <c r="R36">
-        <v>74.98538228749688</v>
+        <v>541.5904011878</v>
       </c>
       <c r="S36">
-        <v>0.01410422240292055</v>
+        <v>0.01526804538738711</v>
       </c>
       <c r="T36">
-        <v>0.01410422240292055</v>
+        <v>0.01274749829707721</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.9390879114481</v>
+        <v>16.4806375</v>
       </c>
       <c r="H37">
-        <v>14.9390879114481</v>
+        <v>32.961275</v>
       </c>
       <c r="I37">
-        <v>0.4140676167067579</v>
+        <v>0.4221281330115276</v>
       </c>
       <c r="J37">
-        <v>0.4140676167067579</v>
+        <v>0.3427201720887801</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.681983787270511</v>
+        <v>8.6884195</v>
       </c>
       <c r="N37">
-        <v>8.681983787270511</v>
+        <v>17.376839</v>
       </c>
       <c r="O37">
-        <v>0.05891750189119398</v>
+        <v>0.05737652288870818</v>
       </c>
       <c r="P37">
-        <v>0.05891750189119398</v>
+        <v>0.03933590231277193</v>
       </c>
       <c r="Q37">
-        <v>129.7009190438013</v>
+        <v>143.1906922274312</v>
       </c>
       <c r="R37">
-        <v>129.7009190438013</v>
+        <v>572.762768909725</v>
       </c>
       <c r="S37">
-        <v>0.02439582959040259</v>
+        <v>0.02422024448570357</v>
       </c>
       <c r="T37">
-        <v>0.02439582959040259</v>
+        <v>0.01348120720990064</v>
       </c>
     </row>
   </sheetData>
